--- a/backend/predictions.xlsx
+++ b/backend/predictions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E193"/>
+  <dimension ref="A1:E321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4103,6 +4103,2438 @@
         <v>17797.15694886606</v>
       </c>
     </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C194" t="n">
+        <v>29</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>КТ</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>-278.6472505423413</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C195" t="n">
+        <v>29</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>КТ с КУ 1 зона</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>510.9311783830165</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C196" t="n">
+        <v>29</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>КТ с КУ 2 и более зон</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>640.7143872584513</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C197" t="n">
+        <v>29</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>ММГ</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>17881.55177987948</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C198" t="n">
+        <v>29</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>МРТ</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>1790.842624551894</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C199" t="n">
+        <v>29</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>МРТ с КУ 1 зона</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>897.2206663200866</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C200" t="n">
+        <v>29</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>РГ</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>80817.62355998011</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C201" t="n">
+        <v>29</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Флюорограф</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>16729.27515575428</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C202" t="n">
+        <v>30</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>КТ</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>-229.4746298155586</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C203" t="n">
+        <v>30</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>КТ с КУ 1 зона</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>541.085389378316</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C204" t="n">
+        <v>30</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>КТ с КУ 2 и более зон</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>607.2922823668603</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C205" t="n">
+        <v>30</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>ММГ</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>18050.4675311627</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C206" t="n">
+        <v>30</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>МРТ</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>1915.094378986799</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C207" t="n">
+        <v>30</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>МРТ с КУ 1 зона</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>924.7399337897501</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C208" t="n">
+        <v>30</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>РГ</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>81716.84107398521</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C209" t="n">
+        <v>30</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Флюорограф</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>16456.90589185619</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C210" t="n">
+        <v>31</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>КТ</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>-593.5465012166098</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C211" t="n">
+        <v>31</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>КТ с КУ 1 зона</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>500.3161984159877</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C212" t="n">
+        <v>31</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>КТ с КУ 2 и более зон</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>604.2882659507698</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C213" t="n">
+        <v>31</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>ММГ</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>16626.88580895221</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C214" t="n">
+        <v>31</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>МРТ</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>1654.723032911874</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C215" t="n">
+        <v>31</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>МРТ с КУ 1 зона</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>818.8883379676314</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C216" t="n">
+        <v>31</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>РГ</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>80911.80947040136</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C217" t="n">
+        <v>31</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Флюорограф</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>16410.65637039962</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C218" t="n">
+        <v>32</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>КТ</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>-513.6638246814102</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C219" t="n">
+        <v>32</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>КТ с КУ 1 зона</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>481.0264422143165</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C220" t="n">
+        <v>32</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>КТ с КУ 2 и более зон</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>546.3508974805575</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C221" t="n">
+        <v>32</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>ММГ</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>17769.58297294423</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C222" t="n">
+        <v>32</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>МРТ</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>1208.98836431796</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C223" t="n">
+        <v>32</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>МРТ с КУ 1 зона</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>687.9623679855023</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C224" t="n">
+        <v>32</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>РГ</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>83514.32525374879</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C225" t="n">
+        <v>32</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Флюорограф</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>16661.38555811696</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C226" t="n">
+        <v>33</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>КТ</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>-642.879127688826</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C227" t="n">
+        <v>33</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>КТ с КУ 1 зона</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>441.5356062929102</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C228" t="n">
+        <v>33</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>КТ с КУ 2 и более зон</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>535.8183834239227</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C229" t="n">
+        <v>33</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>ММГ</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>18271.94175718997</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C230" t="n">
+        <v>33</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>МРТ</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
+        <v>1522.41970465426</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C231" t="n">
+        <v>33</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>МРТ с КУ 1 зона</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>742.6663575277418</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C232" t="n">
+        <v>33</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>РГ</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>85946.55765521104</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C233" t="n">
+        <v>33</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Флюорограф</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>17386.68106326236</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C234" t="n">
+        <v>34</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>КТ</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>-486.1561804545055</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C235" t="n">
+        <v>34</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>КТ с КУ 1 зона</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>488.5653202399699</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C236" t="n">
+        <v>34</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>КТ с КУ 2 и более зон</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>526.8767983836251</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C237" t="n">
+        <v>34</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>ММГ</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>18977.33268374768</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C238" t="n">
+        <v>34</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>МРТ</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>1380.404951654984</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C239" t="n">
+        <v>34</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>МРТ с КУ 1 зона</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>778.2961870493891</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C240" t="n">
+        <v>34</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>РГ</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>88806.40225304336</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C241" t="n">
+        <v>34</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Флюорограф</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>18214.998353355</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C242" t="n">
+        <v>35</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>КТ</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>-313.616733163371</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C243" t="n">
+        <v>35</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>КТ с КУ 1 зона</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>465.996617909981</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C244" t="n">
+        <v>35</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>КТ с КУ 2 и более зон</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>538.3709248891101</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C245" t="n">
+        <v>35</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>ММГ</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>19687.13309910629</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C246" t="n">
+        <v>35</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>МРТ</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>1375.183340210151</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C247" t="n">
+        <v>35</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>МРТ с КУ 1 зона</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>758.2960572095407</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C248" t="n">
+        <v>35</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>РГ</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>91420.77104518459</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C249" t="n">
+        <v>35</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Флюорограф</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>18139.61948411265</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C250" t="n">
+        <v>36</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>КТ</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>-28.7907766560144</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C251" t="n">
+        <v>36</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>КТ с КУ 1 зона</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>470.782968385685</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C252" t="n">
+        <v>36</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>КТ с КУ 2 и более зон</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
+        <v>585.736411734437</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C253" t="n">
+        <v>36</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>ММГ</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>18763.57187991408</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C254" t="n">
+        <v>36</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>МРТ</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>1485.929215804616</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C255" t="n">
+        <v>36</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>МРТ с КУ 1 зона</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>777.4814655475561</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C256" t="n">
+        <v>36</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>РГ</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>92465.38877573241</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C257" t="n">
+        <v>36</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Флюорограф</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>17565.87280143574</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C258" t="n">
+        <v>37</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>КТ</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>130.5068826846315</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C259" t="n">
+        <v>37</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>КТ с КУ 1 зона</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
+        <v>479.5915933330063</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C260" t="n">
+        <v>37</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>КТ с КУ 2 и более зон</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
+        <v>566.8577180273475</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C261" t="n">
+        <v>37</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>ММГ</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>19277.98921308373</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C262" t="n">
+        <v>37</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>МРТ</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>1353.549574867835</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C263" t="n">
+        <v>37</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>МРТ с КУ 1 зона</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>780.3704052834823</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C264" t="n">
+        <v>37</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>РГ</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>97997.76133207837</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C265" t="n">
+        <v>37</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Флюорограф</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
+        <v>17068.2226019554</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C266" t="n">
+        <v>38</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>КТ</t>
+        </is>
+      </c>
+      <c r="E266" t="n">
+        <v>203.2347829053962</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C267" t="n">
+        <v>38</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>КТ с КУ 1 зона</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
+        <v>506.1748285532751</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C268" t="n">
+        <v>38</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>КТ с КУ 2 и более зон</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>597.3233345628794</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C269" t="n">
+        <v>38</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>ММГ</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>14799.41522990969</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C270" t="n">
+        <v>38</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>МРТ</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>1387.593706032723</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C271" t="n">
+        <v>38</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>МРТ с КУ 1 зона</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>746.4445699423587</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C272" t="n">
+        <v>38</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>РГ</t>
+        </is>
+      </c>
+      <c r="E272" t="n">
+        <v>82026.80373590332</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C273" t="n">
+        <v>38</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Флюорограф</t>
+        </is>
+      </c>
+      <c r="E273" t="n">
+        <v>15386.56255506029</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C274" t="n">
+        <v>39</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>КТ</t>
+        </is>
+      </c>
+      <c r="E274" t="n">
+        <v>104.9694620275708</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C275" t="n">
+        <v>39</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>КТ с КУ 1 зона</t>
+        </is>
+      </c>
+      <c r="E275" t="n">
+        <v>529.5422425887748</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C276" t="n">
+        <v>39</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>КТ с КУ 2 и более зон</t>
+        </is>
+      </c>
+      <c r="E276" t="n">
+        <v>634.2113747881605</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C277" t="n">
+        <v>39</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>ММГ</t>
+        </is>
+      </c>
+      <c r="E277" t="n">
+        <v>20792.71185097908</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C278" t="n">
+        <v>39</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>МРТ</t>
+        </is>
+      </c>
+      <c r="E278" t="n">
+        <v>1506.702904453146</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C279" t="n">
+        <v>39</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>МРТ с КУ 1 зона</t>
+        </is>
+      </c>
+      <c r="E279" t="n">
+        <v>764.62976936442</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C280" t="n">
+        <v>39</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>РГ</t>
+        </is>
+      </c>
+      <c r="E280" t="n">
+        <v>102996.896183707</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C281" t="n">
+        <v>39</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Флюорограф</t>
+        </is>
+      </c>
+      <c r="E281" t="n">
+        <v>17720.35116421035</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C282" t="n">
+        <v>40</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>КТ</t>
+        </is>
+      </c>
+      <c r="E282" t="n">
+        <v>260.387474362245</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C283" t="n">
+        <v>40</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>КТ с КУ 1 зона</t>
+        </is>
+      </c>
+      <c r="E283" t="n">
+        <v>595.0131684339913</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C284" t="n">
+        <v>40</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>КТ с КУ 2 и более зон</t>
+        </is>
+      </c>
+      <c r="E284" t="n">
+        <v>680.227804556116</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C285" t="n">
+        <v>40</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>ММГ</t>
+        </is>
+      </c>
+      <c r="E285" t="n">
+        <v>20650.55064463186</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C286" t="n">
+        <v>40</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>МРТ</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v>1945.904559660846</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C287" t="n">
+        <v>40</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>МРТ с КУ 1 зона</t>
+        </is>
+      </c>
+      <c r="E287" t="n">
+        <v>863.8150736594539</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C288" t="n">
+        <v>40</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>РГ</t>
+        </is>
+      </c>
+      <c r="E288" t="n">
+        <v>101708.4931511313</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C289" t="n">
+        <v>40</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Флюорограф</t>
+        </is>
+      </c>
+      <c r="E289" t="n">
+        <v>17774.18371400532</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C290" t="n">
+        <v>41</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>КТ</t>
+        </is>
+      </c>
+      <c r="E290" t="n">
+        <v>296.8926319924135</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C291" t="n">
+        <v>41</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>КТ с КУ 1 зона</t>
+        </is>
+      </c>
+      <c r="E291" t="n">
+        <v>622.1333655828635</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C292" t="n">
+        <v>41</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>КТ с КУ 2 и более зон</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
+        <v>697.2641430716593</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C293" t="n">
+        <v>41</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>ММГ</t>
+        </is>
+      </c>
+      <c r="E293" t="n">
+        <v>20764.74411798853</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C294" t="n">
+        <v>41</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>МРТ</t>
+        </is>
+      </c>
+      <c r="E294" t="n">
+        <v>2002.349315423637</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C295" t="n">
+        <v>41</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>МРТ с КУ 1 зона</t>
+        </is>
+      </c>
+      <c r="E295" t="n">
+        <v>868.1854468115431</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C296" t="n">
+        <v>41</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>РГ</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
+        <v>103370.3043620937</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C297" t="n">
+        <v>41</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Флюорограф</t>
+        </is>
+      </c>
+      <c r="E297" t="n">
+        <v>17266.02822528549</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C298" t="n">
+        <v>42</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>КТ</t>
+        </is>
+      </c>
+      <c r="E298" t="n">
+        <v>479.5369682865106</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C299" t="n">
+        <v>42</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>КТ с КУ 1 зона</t>
+        </is>
+      </c>
+      <c r="E299" t="n">
+        <v>601.298219568517</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C300" t="n">
+        <v>42</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>КТ с КУ 2 и более зон</t>
+        </is>
+      </c>
+      <c r="E300" t="n">
+        <v>688.6163545978756</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C301" t="n">
+        <v>42</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>ММГ</t>
+        </is>
+      </c>
+      <c r="E301" t="n">
+        <v>21381.52053026521</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C302" t="n">
+        <v>42</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>МРТ</t>
+        </is>
+      </c>
+      <c r="E302" t="n">
+        <v>2143.552232872535</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C303" t="n">
+        <v>42</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>МРТ с КУ 1 зона</t>
+        </is>
+      </c>
+      <c r="E303" t="n">
+        <v>869.000212855639</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C304" t="n">
+        <v>42</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>РГ</t>
+        </is>
+      </c>
+      <c r="E304" t="n">
+        <v>107683.9003203119</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C305" t="n">
+        <v>42</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>Флюорограф</t>
+        </is>
+      </c>
+      <c r="E305" t="n">
+        <v>18625.58840214877</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C306" t="n">
+        <v>43</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>КТ</t>
+        </is>
+      </c>
+      <c r="E306" t="n">
+        <v>371.5523380625416</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C307" t="n">
+        <v>43</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>КТ с КУ 1 зона</t>
+        </is>
+      </c>
+      <c r="E307" t="n">
+        <v>608.218310086323</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C308" t="n">
+        <v>43</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>КТ с КУ 2 и более зон</t>
+        </is>
+      </c>
+      <c r="E308" t="n">
+        <v>758.6487306936283</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C309" t="n">
+        <v>43</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>ММГ</t>
+        </is>
+      </c>
+      <c r="E309" t="n">
+        <v>21808.41117597476</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C310" t="n">
+        <v>43</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>МРТ</t>
+        </is>
+      </c>
+      <c r="E310" t="n">
+        <v>2195.00356651131</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C311" t="n">
+        <v>43</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>МРТ с КУ 1 зона</t>
+        </is>
+      </c>
+      <c r="E311" t="n">
+        <v>944.7780181098799</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C312" t="n">
+        <v>43</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>РГ</t>
+        </is>
+      </c>
+      <c r="E312" t="n">
+        <v>109324.5286165562</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C313" t="n">
+        <v>43</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Флюорограф</t>
+        </is>
+      </c>
+      <c r="E313" t="n">
+        <v>18382.41136624262</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C314" t="n">
+        <v>44</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>КТ</t>
+        </is>
+      </c>
+      <c r="E314" t="n">
+        <v>90.5699837722251</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C315" t="n">
+        <v>44</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>КТ с КУ 1 зона</t>
+        </is>
+      </c>
+      <c r="E315" t="n">
+        <v>606.4610809909618</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C316" t="n">
+        <v>44</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>КТ с КУ 2 и более зон</t>
+        </is>
+      </c>
+      <c r="E316" t="n">
+        <v>699.94113935914</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C317" t="n">
+        <v>44</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>ММГ</t>
+        </is>
+      </c>
+      <c r="E317" t="n">
+        <v>22756.7537297925</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C318" t="n">
+        <v>44</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>МРТ</t>
+        </is>
+      </c>
+      <c r="E318" t="n">
+        <v>2073.385126423758</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C319" t="n">
+        <v>44</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>МРТ с КУ 1 зона</t>
+        </is>
+      </c>
+      <c r="E319" t="n">
+        <v>906.5558776346963</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C320" t="n">
+        <v>44</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>РГ</t>
+        </is>
+      </c>
+      <c r="E320" t="n">
+        <v>106007.8143525322</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C321" t="n">
+        <v>44</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Флюорограф</t>
+        </is>
+      </c>
+      <c r="E321" t="n">
+        <v>17591.1419366977</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/predictions.xlsx
+++ b/backend/predictions.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4776.994168850379</v>
+        <v>4776.826028478549</v>
       </c>
     </row>
     <row r="3">
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>492.2674672521272</v>
+        <v>492.2674687290713</v>
       </c>
     </row>
     <row r="4">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>488.9929610408531</v>
+        <v>488.9864300433004</v>
       </c>
     </row>
     <row r="5">
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>19909.23680657219</v>
+        <v>19908.07580079819</v>
       </c>
     </row>
     <row r="6">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1845.843792552321</v>
+        <v>1845.924096766698</v>
       </c>
     </row>
     <row r="7">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>809.71996573569</v>
+        <v>809.7200043265807</v>
       </c>
     </row>
     <row r="8">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>96984.40679916729</v>
+        <v>96984.40679984001</v>
       </c>
     </row>
     <row r="9">
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>10304.1900904222</v>
+        <v>10304.19117279221</v>
       </c>
     </row>
     <row r="10">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3848.590649562907</v>
+        <v>3848.16885478912</v>
       </c>
     </row>
     <row r="11">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>511.5196445479808</v>
+        <v>511.5196463569333</v>
       </c>
     </row>
     <row r="12">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>550.3359184865872</v>
+        <v>550.3386976887552</v>
       </c>
     </row>
     <row r="13">
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>20167.97106745879</v>
+        <v>20167.30287909311</v>
       </c>
     </row>
     <row r="14">
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1796.842596721318</v>
+        <v>1796.886488070346</v>
       </c>
     </row>
     <row r="15">
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>755.6314751717248</v>
+        <v>755.6314936815743</v>
       </c>
     </row>
     <row r="16">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>96940.37540848812</v>
+        <v>96940.37540675516</v>
       </c>
     </row>
     <row r="17">
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13857.78685592532</v>
+        <v>13857.78841218179</v>
       </c>
     </row>
     <row r="18">
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2350.744707546242</v>
+        <v>2350.024824668242</v>
       </c>
     </row>
     <row r="19">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>537.2816043430985</v>
+        <v>537.2816072494318</v>
       </c>
     </row>
     <row r="20">
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>554.1076586295443</v>
+        <v>554.1332031551245</v>
       </c>
     </row>
     <row r="21">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>20930.97333328046</v>
+        <v>20929.66023818851</v>
       </c>
     </row>
     <row r="22">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1822.308714744118</v>
+        <v>1822.296575257005</v>
       </c>
     </row>
     <row r="23">
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>861.3581887245392</v>
+        <v>861.3582291063316</v>
       </c>
     </row>
     <row r="24">
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>96082.27600302952</v>
+        <v>96082.27599879391</v>
       </c>
     </row>
     <row r="25">
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>16778.98205933976</v>
+        <v>16778.98360268017</v>
       </c>
     </row>
     <row r="26">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>385.6690827330734</v>
+        <v>384.8724213109851</v>
       </c>
     </row>
     <row r="27">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>343.7035975599917</v>
+        <v>343.7035968160753</v>
       </c>
     </row>
     <row r="28">
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>484.9066222213667</v>
+        <v>484.9099530675575</v>
       </c>
     </row>
     <row r="29">
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>14361.53078097128</v>
+        <v>14362.43431736049</v>
       </c>
     </row>
     <row r="30">
@@ -1003,7 +1003,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1246.191369606263</v>
+        <v>1246.014655025866</v>
       </c>
     </row>
     <row r="31">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>631.2164173265875</v>
+        <v>631.2163969639385</v>
       </c>
     </row>
     <row r="32">
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>72582.08164577145</v>
+        <v>72582.0816373757</v>
       </c>
     </row>
     <row r="33">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>11051.54515296008</v>
+        <v>11051.54575953938</v>
       </c>
     </row>
     <row r="34">
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1196.910577338577</v>
+        <v>1195.932761490995</v>
       </c>
     </row>
     <row r="35">
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>556.9919474326648</v>
+        <v>556.9919468466185</v>
       </c>
     </row>
     <row r="36">
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>652.466294145381</v>
+        <v>652.4620049028168</v>
       </c>
     </row>
     <row r="37">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>20466.84017840117</v>
+        <v>20465.49060288286</v>
       </c>
     </row>
     <row r="38">
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1688.475388259018</v>
+        <v>1688.348552627063</v>
       </c>
     </row>
     <row r="39">
@@ -1174,7 +1174,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>899.8252027913892</v>
+        <v>899.8252126317806</v>
       </c>
     </row>
     <row r="40">
@@ -1193,7 +1193,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>97159.24717451725</v>
+        <v>97159.24716655781</v>
       </c>
     </row>
     <row r="41">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>21207.17001253804</v>
+        <v>21207.17057545836</v>
       </c>
     </row>
     <row r="42">
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>243.7410710701779</v>
+        <v>242.7435599386712</v>
       </c>
     </row>
     <row r="43">
@@ -1250,7 +1250,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>450.9417009988</v>
+        <v>450.941702236506</v>
       </c>
     </row>
     <row r="44">
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>478.0882471866207</v>
+        <v>478.1065582064555</v>
       </c>
     </row>
     <row r="45">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>18064.47149188811</v>
+        <v>18064.2012336489</v>
       </c>
     </row>
     <row r="46">
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1727.352420998522</v>
+        <v>1727.499745272633</v>
       </c>
     </row>
     <row r="47">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>820.3034734001831</v>
+        <v>820.3035280152551</v>
       </c>
     </row>
     <row r="48">
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>86743.70665377572</v>
+        <v>86743.70664767148</v>
       </c>
     </row>
     <row r="49">
@@ -1364,7 +1364,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>15633.13650242489</v>
+        <v>15633.13774464345</v>
       </c>
     </row>
     <row r="50">
@@ -1383,7 +1383,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1270.930568901927</v>
+        <v>1269.989303338912</v>
       </c>
     </row>
     <row r="51">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>617.2282847259057</v>
+        <v>617.2282848257717</v>
       </c>
     </row>
     <row r="52">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>702.5458825220218</v>
+        <v>702.5559225046895</v>
       </c>
     </row>
     <row r="53">
@@ -1440,7 +1440,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>21070.56382452344</v>
+        <v>21069.02378809996</v>
       </c>
     </row>
     <row r="54">
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1834.536344064753</v>
+        <v>1834.478214410705</v>
       </c>
     </row>
     <row r="55">
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>955.2891282616025</v>
+        <v>955.2891556663419</v>
       </c>
     </row>
     <row r="56">
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>98828.11729461164</v>
+        <v>98828.117286846</v>
       </c>
     </row>
     <row r="57">
@@ -1516,7 +1516,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>24074.8370953596</v>
+        <v>24074.83763598596</v>
       </c>
     </row>
     <row r="58">
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1259.476209759654</v>
+        <v>1258.5783613848</v>
       </c>
     </row>
     <row r="59">
@@ -1554,7 +1554,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>616.5560407780538</v>
+        <v>616.5560399209454</v>
       </c>
     </row>
     <row r="60">
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>730.6322284618122</v>
+        <v>730.6318599162541</v>
       </c>
     </row>
     <row r="61">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>21137.9520961348</v>
+        <v>21136.32754370635</v>
       </c>
     </row>
     <row r="62">
@@ -1611,7 +1611,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1825.695189596376</v>
+        <v>1825.59635261491</v>
       </c>
     </row>
     <row r="63">
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>903.0588372302934</v>
+        <v>903.0588271542306</v>
       </c>
     </row>
     <row r="64">
@@ -1649,7 +1649,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>95030.32583775374</v>
+        <v>95030.3258290204</v>
       </c>
     </row>
     <row r="65">
@@ -1668,7 +1668,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>24410.4935546173</v>
+        <v>24410.49387824458</v>
       </c>
     </row>
     <row r="66">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>883.5429093678749</v>
+        <v>882.5902131203468</v>
       </c>
     </row>
     <row r="67">
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>634.2687507924127</v>
+        <v>634.2687512589887</v>
       </c>
     </row>
     <row r="68">
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>755.4747533549213</v>
+        <v>755.4866934160466</v>
       </c>
     </row>
     <row r="69">
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>21945.31011968844</v>
+        <v>21943.465350389</v>
       </c>
     </row>
     <row r="70">
@@ -1763,7 +1763,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1644.564059463619</v>
+        <v>1644.388562559139</v>
       </c>
     </row>
     <row r="71">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>828.775448245986</v>
+        <v>828.7754033161161</v>
       </c>
     </row>
     <row r="72">
@@ -1801,7 +1801,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>94380.10779422334</v>
+        <v>94380.10778521086</v>
       </c>
     </row>
     <row r="73">
@@ -1820,7 +1820,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>24163.12706922955</v>
+        <v>24163.12743865771</v>
       </c>
     </row>
     <row r="74">
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>942.944717217128</v>
+        <v>941.973736337811</v>
       </c>
     </row>
     <row r="75">
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>608.4112405945959</v>
+        <v>608.4112405522012</v>
       </c>
     </row>
     <row r="76">
@@ -1877,7 +1877,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>704.1818062506312</v>
+        <v>704.1942162302325</v>
       </c>
     </row>
     <row r="77">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>22103.71152466496</v>
+        <v>22101.80126024543</v>
       </c>
     </row>
     <row r="78">
@@ -1915,7 +1915,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1493.825941922441</v>
+        <v>1493.599273705905</v>
       </c>
     </row>
     <row r="79">
@@ -1934,7 +1934,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>855.295134076744</v>
+        <v>855.2951073760229</v>
       </c>
     </row>
     <row r="80">
@@ -1953,7 +1953,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>95998.27677188645</v>
+        <v>95998.27676317323</v>
       </c>
     </row>
     <row r="81">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>25817.72886617139</v>
+        <v>25817.72910548223</v>
       </c>
     </row>
     <row r="82">
@@ -1991,7 +1991,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>501.3969448643397</v>
+        <v>500.4310808501109</v>
       </c>
     </row>
     <row r="83">
@@ -2010,7 +2010,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>597.977550524465</v>
+        <v>597.9775501402404</v>
       </c>
     </row>
     <row r="84">
@@ -2029,7 +2029,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>689.3436213865474</v>
+        <v>689.3491404763117</v>
       </c>
     </row>
     <row r="85">
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>20576.1190132809</v>
+        <v>20574.61477383308</v>
       </c>
     </row>
     <row r="86">
@@ -2067,7 +2067,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1503.887527652453</v>
+        <v>1503.659629393864</v>
       </c>
     </row>
     <row r="87">
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>827.1715414216897</v>
+        <v>827.1715083215687</v>
       </c>
     </row>
     <row r="88">
@@ -2105,7 +2105,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>93248.58864793139</v>
+        <v>93248.58863864199</v>
       </c>
     </row>
     <row r="89">
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>25546.44132744388</v>
+        <v>25546.44128895871</v>
       </c>
     </row>
     <row r="90">
@@ -2143,7 +2143,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>693.8276719935774</v>
+        <v>692.8847902243559</v>
       </c>
     </row>
     <row r="91">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>619.3656624787317</v>
+        <v>619.3656608487656</v>
       </c>
     </row>
     <row r="92">
@@ -2181,7 +2181,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>760.3423263914159</v>
+        <v>760.3499464422152</v>
       </c>
     </row>
     <row r="93">
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>21700.65208561081</v>
+        <v>21698.8591959107</v>
       </c>
     </row>
     <row r="94">
@@ -2219,7 +2219,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1854.755138516846</v>
+        <v>1854.665957438531</v>
       </c>
     </row>
     <row r="95">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>907.0932693817149</v>
+        <v>907.0932644066168</v>
       </c>
     </row>
     <row r="96">
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>94726.6354785179</v>
+        <v>94726.63546914996</v>
       </c>
     </row>
     <row r="97">
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>25820.63426148815</v>
+        <v>25820.6344136597</v>
       </c>
     </row>
     <row r="98">
@@ -2295,7 +2295,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>350.0266606773373</v>
+        <v>349.0888460656431</v>
       </c>
     </row>
     <row r="99">
@@ -2314,7 +2314,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>603.8901725703457</v>
+        <v>603.8901710047558</v>
       </c>
     </row>
     <row r="100">
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>735.7921697971308</v>
+        <v>735.8015910961402</v>
       </c>
     </row>
     <row r="101">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>21227.23931695998</v>
+        <v>21225.58983794449</v>
       </c>
     </row>
     <row r="102">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>1699.717874023418</v>
+        <v>1699.676239203473</v>
       </c>
     </row>
     <row r="103">
@@ -2390,7 +2390,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>920.4552767586342</v>
+        <v>920.4552866829981</v>
       </c>
     </row>
     <row r="104">
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>92569.25609979327</v>
+        <v>92569.25609040757</v>
       </c>
     </row>
     <row r="105">
@@ -2428,7 +2428,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>25051.95639292638</v>
+        <v>25051.95646713051</v>
       </c>
     </row>
     <row r="106">
@@ -2447,7 +2447,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>-572.3925820896105</v>
+        <v>-573.3955298062542</v>
       </c>
     </row>
     <row r="107">
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>461.3402707269498</v>
+        <v>461.340271864327</v>
       </c>
     </row>
     <row r="108">
@@ -2485,7 +2485,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>518.7215757367926</v>
+        <v>518.7261594714619</v>
       </c>
     </row>
     <row r="109">
@@ -2504,7 +2504,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>20051.91647628426</v>
+        <v>20050.98506115577</v>
       </c>
     </row>
     <row r="110">
@@ -2523,7 +2523,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1563.117224460787</v>
+        <v>1563.196240564771</v>
       </c>
     </row>
     <row r="111">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>758.4092616858724</v>
+        <v>758.4093030872433</v>
       </c>
     </row>
     <row r="112">
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>84963.09533666651</v>
+        <v>84963.09532973643</v>
       </c>
     </row>
     <row r="113">
@@ -2580,7 +2580,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>18381.2673567857</v>
+        <v>18381.26806596277</v>
       </c>
     </row>
     <row r="114">
@@ -2599,7 +2599,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>-683.7010491214367</v>
+        <v>-684.6287006669804</v>
       </c>
     </row>
     <row r="115">
@@ -2618,7 +2618,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>391.6301177405813</v>
+        <v>391.6301166782537</v>
       </c>
     </row>
     <row r="116">
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>458.5673480732635</v>
+        <v>458.5741977535254</v>
       </c>
     </row>
     <row r="117">
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>17329.58301607488</v>
+        <v>17329.50839878921</v>
       </c>
     </row>
     <row r="118">
@@ -2675,7 +2675,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1343.836175126578</v>
+        <v>1343.764202604242</v>
       </c>
     </row>
     <row r="119">
@@ -2694,7 +2694,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>587.4251046138291</v>
+        <v>587.4251075161816</v>
       </c>
     </row>
     <row r="120">
@@ -2713,7 +2713,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>77359.13654678621</v>
+        <v>77359.13653804257</v>
       </c>
     </row>
     <row r="121">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>16866.58990310543</v>
+        <v>16866.5899435935</v>
       </c>
     </row>
     <row r="122">
@@ -2751,7 +2751,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>322.2606879871778</v>
+        <v>321.344875663962</v>
       </c>
     </row>
     <row r="123">
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>672.5669228290167</v>
+        <v>672.5669228200413</v>
       </c>
     </row>
     <row r="124">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>682.1355850316393</v>
+        <v>682.1425845026615</v>
       </c>
     </row>
     <row r="125">
@@ -2808,7 +2808,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>22445.77825825802</v>
+        <v>22443.73404086599</v>
       </c>
     </row>
     <row r="126">
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1585.935807456013</v>
+        <v>1585.690467740865</v>
       </c>
     </row>
     <row r="127">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>856.9283207218657</v>
+        <v>856.9283368171459</v>
       </c>
     </row>
     <row r="128">
@@ -2865,7 +2865,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>95922.14550370125</v>
+        <v>95922.1454951973</v>
       </c>
     </row>
     <row r="129">
@@ -2884,7 +2884,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>24628.06243874495</v>
+        <v>24628.06220360218</v>
       </c>
     </row>
     <row r="130">
@@ -2903,7 +2903,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>613.4966049729056</v>
+        <v>612.6166061852896</v>
       </c>
     </row>
     <row r="131">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>680.5158455252138</v>
+        <v>680.515845923532</v>
       </c>
     </row>
     <row r="132">
@@ -2941,7 +2941,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>707.6721068558451</v>
+        <v>707.6789581525027</v>
       </c>
     </row>
     <row r="133">
@@ -2960,7 +2960,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>22367.5218005185</v>
+        <v>22365.46911480062</v>
       </c>
     </row>
     <row r="134">
@@ -2979,7 +2979,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>1780.032535108192</v>
+        <v>1779.911567051318</v>
       </c>
     </row>
     <row r="135">
@@ -2998,7 +2998,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>881.4477369777139</v>
+        <v>881.4477325497589</v>
       </c>
     </row>
     <row r="136">
@@ -3017,7 +3017,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>94240.81077127322</v>
+        <v>94240.8107625218</v>
       </c>
     </row>
     <row r="137">
@@ -3036,7 +3036,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>24382.63479820222</v>
+        <v>24382.63454189145</v>
       </c>
     </row>
     <row r="138">
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>459.0726457089564</v>
+        <v>458.1870991797489</v>
       </c>
     </row>
     <row r="139">
@@ -3074,7 +3074,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>650.224248154056</v>
+        <v>650.2242473425</v>
       </c>
     </row>
     <row r="140">
@@ -3093,7 +3093,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>715.1960427413466</v>
+        <v>715.2022686794024</v>
       </c>
     </row>
     <row r="141">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>22253.23783533812</v>
+        <v>22251.15278549287</v>
       </c>
     </row>
     <row r="142">
@@ -3131,7 +3131,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>1744.333194820738</v>
+        <v>1744.199106431591</v>
       </c>
     </row>
     <row r="143">
@@ -3150,7 +3150,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>941.9912081507963</v>
+        <v>941.9912242831053</v>
       </c>
     </row>
     <row r="144">
@@ -3169,7 +3169,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>92529.57602769558</v>
+        <v>92529.57601821402</v>
       </c>
     </row>
     <row r="145">
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>23673.36482588009</v>
+        <v>23673.36451910418</v>
       </c>
     </row>
     <row r="146">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>327.5299475821636</v>
+        <v>326.6332096071507</v>
       </c>
     </row>
     <row r="147">
@@ -3226,7 +3226,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>671.2111885459897</v>
+        <v>671.2111877926843</v>
       </c>
     </row>
     <row r="148">
@@ -3245,7 +3245,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>755.564935287367</v>
+        <v>755.572345560798</v>
       </c>
     </row>
     <row r="149">
@@ -3264,7 +3264,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>21344.93427936288</v>
+        <v>21343.13909546243</v>
       </c>
     </row>
     <row r="150">
@@ -3283,7 +3283,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>1705.448655423413</v>
+        <v>1705.395257406612</v>
       </c>
     </row>
     <row r="151">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>934.2294476076979</v>
+        <v>934.22945474635</v>
       </c>
     </row>
     <row r="152">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>92687.34455436503</v>
+        <v>92687.34454504028</v>
       </c>
     </row>
     <row r="153">
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>22851.3718979553</v>
+        <v>22851.37156254338</v>
       </c>
     </row>
     <row r="154">
@@ -3359,7 +3359,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>-200.9783094400836</v>
+        <v>-201.8804469867847</v>
       </c>
     </row>
     <row r="155">
@@ -3378,7 +3378,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>580.0482324048463</v>
+        <v>580.0482312212321</v>
       </c>
     </row>
     <row r="156">
@@ -3397,7 +3397,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>642.3986779126918</v>
+        <v>642.4062033143659</v>
       </c>
     </row>
     <row r="157">
@@ -3416,7 +3416,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>18785.02545159245</v>
+        <v>18784.20912041397</v>
       </c>
     </row>
     <row r="158">
@@ -3435,7 +3435,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1761.240538676372</v>
+        <v>1761.247893783669</v>
       </c>
     </row>
     <row r="159">
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>789.536135007477</v>
+        <v>789.5361343034052</v>
       </c>
     </row>
     <row r="160">
@@ -3473,7 +3473,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>84673.38731022304</v>
+        <v>84673.38730126183</v>
       </c>
     </row>
     <row r="161">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>18577.9470267058</v>
+        <v>18577.94683032941</v>
       </c>
     </row>
     <row r="162">
@@ -3511,7 +3511,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>402.6666107781954</v>
+        <v>401.7980006823311</v>
       </c>
     </row>
     <row r="163">
@@ -3530,7 +3530,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>692.9808186110247</v>
+        <v>692.9808180083753</v>
       </c>
     </row>
     <row r="164">
@@ -3549,7 +3549,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>818.9583142422211</v>
+        <v>818.9642170827</v>
       </c>
     </row>
     <row r="165">
@@ -3568,7 +3568,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>20373.80695901709</v>
+        <v>20372.39050457265</v>
       </c>
     </row>
     <row r="166">
@@ -3587,7 +3587,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1984.901865269673</v>
+        <v>1984.93545304237</v>
       </c>
     </row>
     <row r="167">
@@ -3606,7 +3606,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>932.6911568401393</v>
+        <v>932.6911646815477</v>
       </c>
     </row>
     <row r="168">
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>89979.85711898535</v>
+        <v>89979.85710945191</v>
       </c>
     </row>
     <row r="169">
@@ -3644,7 +3644,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>21969.06577955704</v>
+        <v>21969.0654756695</v>
       </c>
     </row>
     <row r="170">
@@ -3663,7 +3663,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>298.8399992833808</v>
+        <v>297.9581876386079</v>
       </c>
     </row>
     <row r="171">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>653.3666771768321</v>
+        <v>653.3666762668956</v>
       </c>
     </row>
     <row r="172">
@@ -3701,7 +3701,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>705.7002894931665</v>
+        <v>705.7060406057698</v>
       </c>
     </row>
     <row r="173">
@@ -3720,7 +3720,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>20093.23706870863</v>
+        <v>20091.97244197653</v>
       </c>
     </row>
     <row r="174">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>1948.619465497691</v>
+        <v>1948.656086070595</v>
       </c>
     </row>
     <row r="175">
@@ -3758,7 +3758,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>905.6586705428602</v>
+        <v>905.6586933921487</v>
       </c>
     </row>
     <row r="176">
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>88568.7633802021</v>
+        <v>88568.76337098364</v>
       </c>
     </row>
     <row r="177">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>19999.95870965172</v>
+        <v>19999.95853449745</v>
       </c>
     </row>
     <row r="178">
@@ -3815,7 +3815,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>3.284084397776041</v>
+        <v>2.467947812816874</v>
       </c>
     </row>
     <row r="179">
@@ -3834,7 +3834,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>628.054440871513</v>
+        <v>628.0544413370881</v>
       </c>
     </row>
     <row r="180">
@@ -3853,7 +3853,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>709.1930125405036</v>
+        <v>709.1996295965452</v>
       </c>
     </row>
     <row r="181">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>19369.85154089953</v>
+        <v>19368.80711740839</v>
       </c>
     </row>
     <row r="182">
@@ -3891,7 +3891,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>1768.656209232508</v>
+        <v>1768.614215841362</v>
       </c>
     </row>
     <row r="183">
@@ -3910,7 +3910,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>928.217201341534</v>
+        <v>928.2172359658853</v>
       </c>
     </row>
     <row r="184">
@@ -3929,7 +3929,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>86704.10181979334</v>
+        <v>86704.10181063447</v>
       </c>
     </row>
     <row r="185">
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>18341.74739137519</v>
+        <v>18341.74747830751</v>
       </c>
     </row>
     <row r="186">
@@ -3967,7 +3967,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>-15.8686138182759</v>
+        <v>-16.67200102873157</v>
       </c>
     </row>
     <row r="187">
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>563.0684478975218</v>
+        <v>563.0684468937981</v>
       </c>
     </row>
     <row r="188">
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>599.8324442909275</v>
+        <v>599.8393255952595</v>
       </c>
     </row>
     <row r="189">
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>18842.18995523145</v>
+        <v>18841.34594004239</v>
       </c>
     </row>
     <row r="190">
@@ -4043,7 +4043,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>1798.888690340891</v>
+        <v>1798.883967742446</v>
       </c>
     </row>
     <row r="191">
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>897.5523634181806</v>
+        <v>897.5523938883375</v>
       </c>
     </row>
     <row r="192">
@@ -4081,7 +4081,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>83587.85350971621</v>
+        <v>83587.85350021647</v>
       </c>
     </row>
     <row r="193">
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>17797.15694886606</v>
+        <v>17797.15688809632</v>
       </c>
     </row>
   </sheetData>
